--- a/Gestión/Bitácora.xlsx
+++ b/Gestión/Bitácora.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauriciorodriguez/Documents/GitHub/HCI-Team4-Workspace/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF0A5F3-D2D1-4F2E-BBE1-7D4BD3EB53DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="460" windowWidth="27000" windowHeight="17540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades realizadas" sheetId="1" r:id="rId1"/>
@@ -21,18 +17,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -293,12 +289,21 @@
   </si>
   <si>
     <t>Nice, even tough the justification of the technique was a bit boring, remembering the activity was nice.</t>
+  </si>
+  <si>
+    <t>Making the inspection methods document</t>
+  </si>
+  <si>
+    <t>2hr 45 min (23:03-01:48)</t>
+  </si>
+  <si>
+    <t>I fell a little confused, cause I dont understand at the begining what I need to do correctly, so  i need to correct my work 2 times</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,6 +469,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -472,6 +478,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -482,10 +491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,28 +770,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
-    <col min="8" max="8" width="78.33203125" customWidth="1"/>
-    <col min="9" max="9" width="68.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="78.28515625" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -812,7 +817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>43516</v>
       </c>
@@ -836,17 +841,17 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="18">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
         <v>43522</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -860,11 +865,11 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
@@ -876,11 +881,11 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
@@ -892,7 +897,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>43521</v>
       </c>
@@ -916,7 +921,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>43522</v>
       </c>
@@ -940,7 +945,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>43522</v>
       </c>
@@ -964,7 +969,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>43522</v>
       </c>
@@ -988,7 +993,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>43522</v>
       </c>
@@ -1012,7 +1017,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>43523</v>
       </c>
@@ -1036,7 +1041,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15">
         <v>43523</v>
       </c>
@@ -1062,7 +1067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>43529</v>
       </c>
@@ -1085,11 +1090,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>43512</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -1111,11 +1116,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>43513</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="17" t="s">
         <v>49</v>
       </c>
@@ -1125,11 +1130,28 @@
       <c r="F16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="18" t="s">
         <v>85</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1145,20 +1167,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1191,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>65</v>
       </c>
@@ -1180,7 +1202,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
@@ -1191,7 +1213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>67</v>
       </c>
@@ -1202,7 +1224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>68</v>
       </c>
@@ -1213,7 +1235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -1224,7 +1246,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>72</v>
       </c>
@@ -1235,7 +1257,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>73</v>
       </c>
@@ -1253,27 +1275,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
@@ -1293,7 +1315,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
@@ -1305,7 +1327,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>49</v>
       </c>
@@ -1317,7 +1339,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
@@ -1329,18 +1351,18 @@
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="21" t="s">
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>64</v>
       </c>
@@ -1360,7 +1382,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1370,7 +1392,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
@@ -1380,7 +1402,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>62</v>
       </c>
@@ -1390,7 +1412,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1400,18 +1422,18 @@
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="21" t="s">
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>64</v>
       </c>
@@ -1431,7 +1453,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
@@ -1441,7 +1463,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>33</v>
       </c>
@@ -1451,7 +1473,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>62</v>
       </c>
@@ -1461,7 +1483,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
@@ -1471,18 +1493,18 @@
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="21" t="s">
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>64</v>
       </c>
@@ -1502,7 +1524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
@@ -1512,7 +1534,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
@@ -1522,7 +1544,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>62</v>
       </c>
@@ -1532,7 +1554,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>11</v>
       </c>
